--- a/biology/Botanique/Platymiscium/Platymiscium.xlsx
+++ b/biology/Botanique/Platymiscium/Platymiscium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platymiscium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Amérique, qui comprend une quarantaine d'espèces acceptées.
-Ce sont des arbres de taille moyenne à grande (jusqu'à 33 mètres de haut), au tronc pouvant atteindre 120 cm de diamètre, qui se caractérisent notamment par leurs feuilles opposées et leurs fleurs papilionacées jaunes groupées en racèmes axillaires. Certaines espèces sont appréciées pour leur bois exploité comme bois d'œuvre[2], commercialisé notamment sous le nom de macacaúba[3].
+Ce sont des arbres de taille moyenne à grande (jusqu'à 33 mètres de haut), au tronc pouvant atteindre 120 cm de diamètre, qui se caractérisent notamment par leurs feuilles opposées et leurs fleurs papilionacées jaunes groupées en racèmes axillaires. Certaines espèces sont appréciées pour leur bois exploité comme bois d'œuvre, commercialisé notamment sous le nom de macacaúba.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (19 novembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (19 novembre 2018) :
 Platymiscium albertinae Standl. &amp; L.O.Williams
 Platymiscium blanchetii Benth.
 Platymiscium calyptratum M. Sousa &amp; Klitg.
